--- a/src/Wyniki.xlsx
+++ b/src/Wyniki.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\szkola\Studia\Magister\Semestr2\TIO\Knapsack-problem\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EB159E-00FB-45CB-B4B8-A3B51EDAEF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E79033-90F4-4D92-862D-3F24B60A489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E9B3E9A-8DCD-4727-AB7F-2709E91AB895}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E9B3E9A-8DCD-4727-AB7F-2709E91AB895}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>generacje</t>
   </si>
@@ -90,6 +91,36 @@
   </si>
   <si>
     <t>pop = 40, c = 0.2</t>
+  </si>
+  <si>
+    <t>Liczba mrówek</t>
+  </si>
+  <si>
+    <t>Czas wykonania</t>
+  </si>
+  <si>
+    <t>Średni najlepszy wynik</t>
+  </si>
+  <si>
+    <t>iter = 50, alpha = 1, beta = 2</t>
+  </si>
+  <si>
+    <t>l.m = 10, alpka = 1, beta = 2</t>
+  </si>
+  <si>
+    <t>Liczba iteracji</t>
+  </si>
+  <si>
+    <t>l.m = 10, iter = 50, beta = 2</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>l.m = 10, iter = 50, alpha = 1.0</t>
+  </si>
+  <si>
+    <t>Beta</t>
   </si>
 </sst>
 </file>
@@ -126,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,19 +165,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -463,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F26BB71-82F1-43F2-BBE1-D772F0AA8C2F}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -498,62 +551,62 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="N3" s="1" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="N3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -938,16 +991,16 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="F16" s="1" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="J16" s="3" t="s">
         <v>15</v>
       </c>
@@ -955,29 +1008,29 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H17" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18">
@@ -998,13 +1051,13 @@
       <c r="H18">
         <v>9762.5</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1219,18 +1272,557 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEED447-F328-4CCB-8709-DEC3C0AF5D41}">
+  <dimension ref="B2:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>102</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9745.6666669999995</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>60.333333000000003</v>
+      </c>
+      <c r="H4" s="8">
+        <v>9764</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>93.666667000000004</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9760</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>68.333332999999996</v>
+      </c>
+      <c r="H5" s="8">
+        <v>9766</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <v>108.666667</v>
+      </c>
+      <c r="D6" s="8">
+        <v>9765</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>76.333332999999996</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9766.3333330000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7">
+        <v>141.66666699999999</v>
+      </c>
+      <c r="D7" s="8">
+        <v>9765</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>81</v>
+      </c>
+      <c r="H7" s="7">
+        <v>9763.6666669999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7">
+        <v>197.66666699999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9765.3333330000005</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>74.333332999999996</v>
+      </c>
+      <c r="H8" s="7">
+        <v>9766.3333330000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7">
+        <v>219.66666699999999</v>
+      </c>
+      <c r="D9" s="8">
+        <v>9767</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="8">
+        <v>73</v>
+      </c>
+      <c r="H9" s="7">
+        <v>9761.3333330000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>50</v>
+      </c>
+      <c r="C10" s="7">
+        <v>259.33333299999998</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9766.6666669999995</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="8">
+        <v>68</v>
+      </c>
+      <c r="H10" s="8">
+        <v>9765</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>60</v>
+      </c>
+      <c r="C11" s="7">
+        <v>311.33333299999998</v>
+      </c>
+      <c r="D11" s="8">
+        <v>9767</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G11" s="8">
+        <v>61</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9766.3333330000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>70</v>
+      </c>
+      <c r="C12" s="7">
+        <v>335.33333299999998</v>
+      </c>
+      <c r="D12" s="8">
+        <v>9767</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="7">
+        <v>58.666666999999997</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9759.3333330000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>80</v>
+      </c>
+      <c r="C13" s="8">
+        <v>404</v>
+      </c>
+      <c r="D13" s="8">
+        <v>9767</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>59.666666999999997</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9763.6666669999995</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>90</v>
+      </c>
+      <c r="C14" s="8">
+        <v>490</v>
+      </c>
+      <c r="D14" s="8">
+        <v>9766</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>100</v>
+      </c>
+      <c r="C15" s="7">
+        <v>553.66666699999996</v>
+      </c>
+      <c r="D15" s="8">
+        <v>9767</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="F17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>62</v>
+      </c>
+      <c r="H17" s="7">
+        <v>9763.6666669999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>75.666667000000004</v>
+      </c>
+      <c r="H18" s="8">
+        <v>9766</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>9751</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="7">
+        <v>60.666666999999997</v>
+      </c>
+      <c r="H19" s="8">
+        <v>9766</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8">
+        <v>9760</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="8">
+        <v>59</v>
+      </c>
+      <c r="H20" s="8">
+        <v>9763</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>10</v>
+      </c>
+      <c r="C21" s="8">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7">
+        <v>9761.6666669999995</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="7">
+        <v>58.666666999999997</v>
+      </c>
+      <c r="H21" s="7">
+        <v>9763.6666669999995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7">
+        <v>29.333333</v>
+      </c>
+      <c r="D22" s="7">
+        <v>9765.3333330000005</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="8">
+        <v>59</v>
+      </c>
+      <c r="H22" s="7">
+        <v>9762.3333330000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>30</v>
+      </c>
+      <c r="C23" s="7">
+        <v>40.666666999999997</v>
+      </c>
+      <c r="D23" s="7">
+        <v>9766.6666669999995</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G23" s="7">
+        <v>66.333332999999996</v>
+      </c>
+      <c r="H23" s="7">
+        <v>9764.6666669999995</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>40</v>
+      </c>
+      <c r="C24" s="7">
+        <v>60.333333000000003</v>
+      </c>
+      <c r="D24" s="7">
+        <v>9759.6666669999995</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G24" s="7">
+        <v>63.666666999999997</v>
+      </c>
+      <c r="H24" s="7">
+        <v>9762.3333330000005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>50</v>
+      </c>
+      <c r="C25" s="7">
+        <v>76.333332999999996</v>
+      </c>
+      <c r="D25" s="7">
+        <v>9761.3333330000005</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G25" s="7">
+        <v>61.666666999999997</v>
+      </c>
+      <c r="H25" s="7">
+        <v>9762.6666669999995</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>60</v>
+      </c>
+      <c r="C26" s="7">
+        <v>90.666667000000004</v>
+      </c>
+      <c r="D26" s="8">
+        <v>9763</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>70</v>
+      </c>
+      <c r="H26" s="7">
+        <v>9763.3333330000005</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>70</v>
+      </c>
+      <c r="C27" s="8">
+        <v>107</v>
+      </c>
+      <c r="D27" s="7">
+        <v>9766.6666669999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>80</v>
+      </c>
+      <c r="C28" s="7">
+        <v>121.333333</v>
+      </c>
+      <c r="D28" s="7">
+        <v>9764.6666669999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>90</v>
+      </c>
+      <c r="C29" s="7">
+        <v>137.66666699999999</v>
+      </c>
+      <c r="D29" s="7">
+        <v>9764.6666669999995</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>100</v>
+      </c>
+      <c r="C30" s="7">
+        <v>126.666667</v>
+      </c>
+      <c r="D30" s="8">
+        <v>9765</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F15:H15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>